--- a/Carla_Sumo_Code/Dataset/withoutmitigation/dataset_init.xlsx
+++ b/Carla_Sumo_Code/Dataset/withoutmitigation/dataset_init.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -61,28 +61,25 @@
     <t xml:space="preserve">best</t>
   </si>
   <si>
+    <t xml:space="preserve">-16.0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.0.00</t>
   </si>
   <si>
+    <t xml:space="preserve">25.0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">-26.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16.0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0.00</t>
   </si>
 </sst>
 </file>
@@ -180,13 +177,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:5"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
   </cols>
@@ -226,7 +223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -234,7 +231,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -255,7 +252,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>3</v>
@@ -269,7 +266,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -290,10 +287,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +301,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
@@ -313,7 +310,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>5</v>
@@ -325,7 +322,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>3</v>
@@ -339,16 +336,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>5</v>
@@ -366,44 +363,987 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
